--- a/data/trans_orig/TAM_HOG-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.580467959191636</v>
+        <v>3.581675436615185</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.618297121941039</v>
+        <v>3.626303439859525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.401639523532128</v>
+        <v>3.396510835559255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.240869703225941</v>
+        <v>3.22882988974504</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.715162924603706</v>
+        <v>3.703214537690392</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.677581063052374</v>
+        <v>3.671893241601545</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.255763467833106</v>
+        <v>3.262292139979657</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.440212282538256</v>
+        <v>3.452362343912243</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.679004142841119</v>
+        <v>3.673275171613985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.687892064607148</v>
+        <v>3.682211210919867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3.378358958490543</v>
+        <v>3.368629784816161</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.398191510339571</v>
+        <v>3.390381712819849</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.786817011871432</v>
+        <v>3.800787574100795</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.820773294234218</v>
+        <v>3.830466999849321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.674728694692515</v>
+        <v>3.671912207604847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.623674336477824</v>
+        <v>3.608337639270982</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.929716899019187</v>
+        <v>3.930264375906885</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.913562666886657</v>
+        <v>3.92919902306998</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.518468239058798</v>
+        <v>3.511848376732292</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.852979434295145</v>
+        <v>3.847652146025329</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.830234787902628</v>
+        <v>3.830911684012095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.843534826362235</v>
+        <v>3.837663005998809</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.56292156918178</v>
+        <v>3.560883850763542</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.653402484633018</v>
+        <v>3.658366337323671</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.013260935900789</v>
+        <v>3.01465118386845</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.005452501108079</v>
+        <v>3.008476665471847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.966154606755767</v>
+        <v>2.961444246229598</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.628865923531168</v>
+        <v>2.621293306784072</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.144368858425463</v>
+        <v>3.13804005713689</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.200277502978599</v>
+        <v>3.194852148340788</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.032158128331249</v>
+        <v>3.02600065908437</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.918754050256341</v>
+        <v>2.916385543880466</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.099836437927369</v>
+        <v>3.095227488052029</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.117191371231186</v>
+        <v>3.123155341746569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.022577142428449</v>
+        <v>3.028798816400508</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.807476383129704</v>
+        <v>2.804132128523208</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.198620128518721</v>
+        <v>3.205797580746764</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.197196287159327</v>
+        <v>3.206173635267732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.187222644797321</v>
+        <v>3.185107415497453</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.903988592888666</v>
+        <v>2.924056685642438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.317282526986939</v>
+        <v>3.319887311801493</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.388887969450957</v>
+        <v>3.386763335507797</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.226280979318767</v>
+        <v>3.226192822164427</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.143446600785576</v>
+        <v>3.140057065444672</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.230571718869194</v>
+        <v>3.228034040134891</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.253368997045735</v>
+        <v>3.261431425696791</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.171572933358537</v>
+        <v>3.179799392188039</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.988370549567513</v>
+        <v>2.981254038107438</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.334182623022158</v>
+        <v>3.33897701411373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.420391754859572</v>
+        <v>3.411464903203588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.05412519645775</v>
+        <v>3.058158410341571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.892501386175963</v>
+        <v>2.892357120161257</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.721812857846638</v>
+        <v>3.711905009185433</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.671228926154377</v>
+        <v>3.673471668558019</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.383476460976538</v>
+        <v>3.385495476578083</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.386970855170069</v>
+        <v>3.382472645218925</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.556011739043177</v>
+        <v>3.551478679902191</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.573448506100612</v>
+        <v>3.567356318589991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.238621180464988</v>
+        <v>3.23958612419352</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.15880035499478</v>
+        <v>3.160796443035857</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.51703425213028</v>
+        <v>3.51654609264545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.606659122667812</v>
+        <v>3.589365285215058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.239210030586068</v>
+        <v>3.237164866869678</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.110553455785101</v>
+        <v>3.101792816122931</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.896349900809234</v>
+        <v>3.888660791618043</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.827228669309029</v>
+        <v>3.827383281215218</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.556102631581243</v>
+        <v>3.555537981181401</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.546354119187135</v>
+        <v>3.550227956656483</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.683638856609609</v>
+        <v>3.679954191807657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.691449414694236</v>
+        <v>3.690273377821515</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.369747593456191</v>
+        <v>3.370198908096917</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.294744746389604</v>
+        <v>3.305387063705143</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>3.096839447775054</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.951499417487235</v>
+        <v>2.951499417487234</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.524479837072677</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.362076913224423</v>
+        <v>3.347986463704822</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.330628361590536</v>
+        <v>3.333086637846817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.996861388946882</v>
+        <v>2.996974435013047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.845046199406983</v>
+        <v>2.846875402085351</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.413516444343311</v>
+        <v>3.414820516576484</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.362948228486757</v>
+        <v>3.360899403177743</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.205066977874267</v>
+        <v>3.192920708493516</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.169111727871658</v>
+        <v>3.171071327582351</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.415073244734407</v>
+        <v>3.421964921283776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.37857040723218</v>
+        <v>3.376165253795336</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.119787577583644</v>
+        <v>3.126945351268376</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.031304513894293</v>
+        <v>3.034077101946873</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.57506340818084</v>
+        <v>3.571435049556816</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.544401508426615</v>
+        <v>3.535675574051608</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.200571094243265</v>
+        <v>3.197532538826806</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.054994068642093</v>
+        <v>3.062355391003063</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.632805481862257</v>
+        <v>3.643333198409721</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.558521393129893</v>
+        <v>3.567833308150765</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.379921580395858</v>
+        <v>3.382617002963499</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.303010415622904</v>
+        <v>3.310738956464607</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.565884803303114</v>
+        <v>3.58145848431956</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.5245034063936</v>
+        <v>3.523495136489065</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.261381803926727</v>
+        <v>3.255850103615322</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.165680371403965</v>
+        <v>3.162647580128756</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.841674973154832</v>
+        <v>2.842278401681018</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.839046108146872</v>
+        <v>2.832730049677844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.606654738617909</v>
+        <v>2.615428515159696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.445095657988849</v>
+        <v>2.445260163392486</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.821929955792103</v>
+        <v>2.81824973499363</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.665343715294288</v>
+        <v>2.662476687029379</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.399973775229776</v>
+        <v>2.407967438286013</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.395693790679672</v>
+        <v>2.404657736447636</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.858332261145153</v>
+        <v>2.866624141025663</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.782683972963408</v>
+        <v>2.771549163810312</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.540053741487171</v>
+        <v>2.536404293479685</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.443182225869004</v>
+        <v>2.444948123091727</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.084718709411101</v>
+        <v>3.09867365333684</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.076719741171519</v>
+        <v>3.06871938875443</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.852122122210814</v>
+        <v>2.851083414663486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.629549054902984</v>
+        <v>2.643323344097634</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.094460417634203</v>
+        <v>3.090645742882399</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.897658292859179</v>
+        <v>2.928897386032575</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.599298423342558</v>
+        <v>2.608704869671553</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.539141632136779</v>
+        <v>2.545670504449977</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.04513196536577</v>
+        <v>3.052002345120192</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.949206795597296</v>
+        <v>2.940062688775244</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.690751683851902</v>
+        <v>2.697168660761241</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.555390547892706</v>
+        <v>2.560601107870753</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.243982413485924</v>
+        <v>2.242472880196826</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.243934403193182</v>
+        <v>2.251016192712223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.179434272316406</v>
+        <v>2.171342275846277</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.027013886869636</v>
+        <v>2.022188683670308</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.100347643667681</v>
+        <v>2.098606674304972</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.072964913521488</v>
+        <v>2.078432774867705</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.02929684551647</v>
+        <v>2.040255577332202</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.860795473010754</v>
+        <v>1.858614465517267</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.200716519263373</v>
+        <v>2.201285325660715</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2.186318180989028</v>
+        <v>2.179315313892908</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2.127478267588462</v>
+        <v>2.123022183824406</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.957288039095055</v>
+        <v>1.955943235651975</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.466051540798793</v>
+        <v>2.473341039551621</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.483181720672046</v>
+        <v>2.500225090772945</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.401142093169518</v>
+        <v>2.392361954230847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.174727709500536</v>
+        <v>2.163703221023933</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.307712049785104</v>
+        <v>2.3162973487955</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.269824198421343</v>
+        <v>2.284136995352118</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.246174089938794</v>
+        <v>2.257037267346898</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>1.985296060945787</v>
+        <v>1.98547445573743</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.351176538512362</v>
+        <v>2.34568647286322</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.340765294886675</v>
+        <v>2.346172022724488</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.280640062828212</v>
+        <v>2.276850071170094</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>2.053605247916262</v>
+        <v>2.059134343566289</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.005463905988227</v>
+        <v>2.004775837635479</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.025019043964926</v>
+        <v>2.003011417615625</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.903196162453423</v>
+        <v>1.898573596456273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.807619570429514</v>
+        <v>1.80675881190866</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.918482856518967</v>
+        <v>1.919322664389479</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.86619232601266</v>
+        <v>1.864538831153806</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.814479157665293</v>
+        <v>1.810427747778006</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.526246621792417</v>
+        <v>1.525579398099889</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.98830564883931</v>
+        <v>1.991651933435684</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.953907031426526</v>
+        <v>1.946720881677909</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.867818870460583</v>
+        <v>1.867303991788897</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.651893286355206</v>
+        <v>1.648211226795014</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.262462166186426</v>
+        <v>2.26951449369631</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.286688988233413</v>
+        <v>2.274948004038126</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.108646281133298</v>
+        <v>2.120393409337249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.959268834277516</v>
+        <v>1.966975537210677</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.188369428711434</v>
+        <v>2.187348452926299</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.101944353171651</v>
+        <v>2.096969252539039</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.04583891816333</v>
+        <v>2.044149689431978</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.641072666292654</v>
+        <v>1.632645618062448</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.178704068319254</v>
+        <v>2.178451632991586</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.121412372916771</v>
+        <v>2.131329912143348</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.030750487878135</v>
+        <v>2.040320807672301</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>1.743580625177542</v>
+        <v>1.745475257989728</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.122814187403312</v>
+        <v>3.122070985042953</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.127110462877301</v>
+        <v>3.127390985526335</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.89324287352741</v>
+        <v>2.897023214709269</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.675480044293677</v>
+        <v>2.677237946011624</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.176006538211604</v>
+        <v>3.170765200790224</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.106360952887475</v>
+        <v>3.103314161268094</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.876740728345611</v>
+        <v>2.875048633227923</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.761229671910955</v>
+        <v>2.762430733217808</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>3.161187822449524</v>
+        <v>3.161152654695599</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3.131052487486238</v>
+        <v>3.128614739043657</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2.899449637646806</v>
+        <v>2.895032186650647</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>2.732949027368992</v>
+        <v>2.732765260939675</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.213151503229673</v>
+        <v>3.207845283233538</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.213633143001911</v>
+        <v>3.212742734186661</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.984792559471357</v>
+        <v>2.988029891250296</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.775767383542931</v>
+        <v>2.774220136336768</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.265796640292091</v>
+        <v>3.265514244690142</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.193845136688305</v>
+        <v>3.19400809878598</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.960525346918643</v>
+        <v>2.963574173195549</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.84147270548802</v>
+        <v>2.84241258176009</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>3.222492029222322</v>
+        <v>3.223140815441151</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3.1913907444379</v>
+        <v>3.191641308692424</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.966696829652078</v>
+        <v>2.957817511704896</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.795672667129362</v>
+        <v>2.795311192313626</v>
       </c>
     </row>
     <row r="28">
